--- a/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>112573</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95967</v>
+        <v>93767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134406</v>
+        <v>131594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2683732177388599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2287863283053056</v>
+        <v>0.2235398784776639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3204245198087997</v>
+        <v>0.3137207767312308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -763,19 +763,19 @@
         <v>80621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65716</v>
+        <v>65250</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96764</v>
+        <v>97844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2042156184651982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1664622681827384</v>
+        <v>0.1652814607574981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2451064034434176</v>
+        <v>0.247842009827295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -784,19 +784,19 @@
         <v>193193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167883</v>
+        <v>171618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218617</v>
+        <v>219127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2372667581477263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2061826957731022</v>
+        <v>0.2107699888667448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2684903832316775</v>
+        <v>0.2691171530629666</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>306890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285057</v>
+        <v>287869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>323496</v>
+        <v>325696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7316267822611401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6795754801912003</v>
+        <v>0.6862792232687694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7712136716946943</v>
+        <v>0.7764601215223361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>321</v>
@@ -834,19 +834,19 @@
         <v>314161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298018</v>
+        <v>296938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329066</v>
+        <v>329532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7957843815348018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7548935965565824</v>
+        <v>0.7521579901727049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8335377318172615</v>
+        <v>0.8347185392425018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>605</v>
@@ -855,19 +855,19 @@
         <v>621052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>595628</v>
+        <v>595118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>646362</v>
+        <v>642627</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7627332418522736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7315096167683224</v>
+        <v>0.7308828469370334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7938173042268978</v>
+        <v>0.7892300111332552</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>131178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111464</v>
+        <v>112075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151153</v>
+        <v>152064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2224877918449077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1890505210487689</v>
+        <v>0.1900872655491628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2563661572989276</v>
+        <v>0.2579120151334454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -980,19 +980,19 @@
         <v>66823</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53236</v>
+        <v>53161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84936</v>
+        <v>82684</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1187619462080907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09461468214055274</v>
+        <v>0.09448087055763478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1509544602920298</v>
+        <v>0.1469505158906242</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -1001,19 +1001,19 @@
         <v>198001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>174534</v>
+        <v>172861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225936</v>
+        <v>224687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1718372212105241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1514709360334435</v>
+        <v>0.1500186324332901</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1960805967393432</v>
+        <v>0.1949966093482692</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>458420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438445</v>
+        <v>437534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478134</v>
+        <v>477523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7775122081550923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7436338427010722</v>
+        <v>0.7420879848665545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.810949478951231</v>
+        <v>0.8099127344508372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>509</v>
@@ -1051,19 +1051,19 @@
         <v>495840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477727</v>
+        <v>479979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509427</v>
+        <v>509502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8812380537919093</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8490455397079703</v>
+        <v>0.853049484109376</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9053853178594473</v>
+        <v>0.9055191294423652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>950</v>
@@ -1072,19 +1072,19 @@
         <v>954260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>926325</v>
+        <v>927574</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977727</v>
+        <v>979400</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8281627787894759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8039194032606568</v>
+        <v>0.8050033906517307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8485290639665565</v>
+        <v>0.8499813675667098</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>78682</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63257</v>
+        <v>62399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96778</v>
+        <v>95970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1182477169755793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09506649916356302</v>
+        <v>0.09377706823382931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1454442466235627</v>
+        <v>0.1442298199194921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1197,19 +1197,19 @@
         <v>53009</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40100</v>
+        <v>40914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68012</v>
+        <v>68674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08050268387970841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06089896426080449</v>
+        <v>0.06213556644123017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1032882279228554</v>
+        <v>0.104293763359511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -1218,19 +1218,19 @@
         <v>131690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110111</v>
+        <v>111409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154041</v>
+        <v>154338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09947399191422837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08317340928903839</v>
+        <v>0.08415379288367905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1163568633824122</v>
+        <v>0.1165810870016758</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>586717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568621</v>
+        <v>569429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>602142</v>
+        <v>603000</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8817522830244208</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8545557533764366</v>
+        <v>0.8557701800805078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9049335008364369</v>
+        <v>0.9062229317661705</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>608</v>
@@ -1268,19 +1268,19 @@
         <v>605460</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590457</v>
+        <v>589795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>618369</v>
+        <v>617555</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9194973161202916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8967117720771444</v>
+        <v>0.8957062366404889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9391010357391955</v>
+        <v>0.9378644335587693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1166</v>
@@ -1289,19 +1289,19 @@
         <v>1192178</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1169827</v>
+        <v>1169530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1213757</v>
+        <v>1212459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9005260080857717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8836431366175879</v>
+        <v>0.8834189129983244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9168265907109617</v>
+        <v>0.9158462071163215</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>50425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37430</v>
+        <v>38152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64236</v>
+        <v>67366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07818830035084996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05803832495073909</v>
+        <v>0.05915762928864114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0996033594558048</v>
+        <v>0.1044552026524589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1414,19 +1414,19 @@
         <v>33194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23097</v>
+        <v>23621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45748</v>
+        <v>46420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05140161328198997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0357659011088774</v>
+        <v>0.03657768503961872</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.070841794507068</v>
+        <v>0.07188209014890402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1435,19 +1435,19 @@
         <v>83619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66756</v>
+        <v>66242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103836</v>
+        <v>103117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06478613811042108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05172112938174575</v>
+        <v>0.05132248396011538</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08044973807408001</v>
+        <v>0.0798921974824368</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>594498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>580687</v>
+        <v>577557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607493</v>
+        <v>606771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.92181169964915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9003966405441953</v>
+        <v>0.8955447973475411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.941961675049261</v>
+        <v>0.9408423707113589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>568</v>
@@ -1485,19 +1485,19 @@
         <v>612579</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>600025</v>
+        <v>599353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>622676</v>
+        <v>622152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.94859838671801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.929158205492932</v>
+        <v>0.928117909851096</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9642340988911222</v>
+        <v>0.9634223149603812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1101</v>
@@ -1506,19 +1506,19 @@
         <v>1207077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1186860</v>
+        <v>1187579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223940</v>
+        <v>1224454</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9352138618895789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9195502619259195</v>
+        <v>0.9201078025175629</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9482788706182542</v>
+        <v>0.9486775160398845</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>24672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16637</v>
+        <v>16038</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36926</v>
+        <v>36239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05244975568721685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03536813999793719</v>
+        <v>0.03409401035759316</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0785002364685732</v>
+        <v>0.07703970942754841</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1631,19 +1631,19 @@
         <v>22388</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14501</v>
+        <v>13122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35457</v>
+        <v>34281</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04517357873605564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02925924043733497</v>
+        <v>0.02647696641425955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07154195646786869</v>
+        <v>0.0691707607282621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1652,19 +1652,19 @@
         <v>47060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33818</v>
+        <v>34052</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63328</v>
+        <v>63236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04871671144421368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03500792935502522</v>
+        <v>0.03525072955426516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06555727566466113</v>
+        <v>0.0654618522618528</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>445720</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>433466</v>
+        <v>434153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>453755</v>
+        <v>454354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9475502443127831</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9214997635314268</v>
+        <v>0.9229602905724515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9646318600020628</v>
+        <v>0.9659059896424068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>413</v>
@@ -1702,19 +1702,19 @@
         <v>473217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>460148</v>
+        <v>461324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>481104</v>
+        <v>482483</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9548264212639443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9284580435321312</v>
+        <v>0.9308292392717379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.970740759562665</v>
+        <v>0.9735230335857403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>808</v>
@@ -1723,19 +1723,19 @@
         <v>918937</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>902669</v>
+        <v>902761</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>932179</v>
+        <v>931945</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9512832885557864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9344427243353388</v>
+        <v>0.9345381477381473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9649920706449747</v>
+        <v>0.9647492704457348</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>12428</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6747</v>
+        <v>6891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20773</v>
+        <v>20062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03739492371059915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02030066109714597</v>
+        <v>0.02073513426788169</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0625072502072343</v>
+        <v>0.06036851931542331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1848,19 +1848,19 @@
         <v>11435</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5950</v>
+        <v>6082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19775</v>
+        <v>19149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03043334185366171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01583437879105199</v>
+        <v>0.01618693919137423</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05262774491625627</v>
+        <v>0.05096348377217456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1869,19 +1869,19 @@
         <v>23863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15795</v>
+        <v>16007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34430</v>
+        <v>35928</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03370071633055994</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02230634451182274</v>
+        <v>0.02260685279136118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04862464337934563</v>
+        <v>0.05074004311546799</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>319905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>311560</v>
+        <v>312271</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>325586</v>
+        <v>325442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9626050762894008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9374927497927656</v>
+        <v>0.9396314806845767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.979699338902854</v>
+        <v>0.9792648657321182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -1919,19 +1919,19 @@
         <v>364312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355972</v>
+        <v>356598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369797</v>
+        <v>369665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9695666581463382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9473722550837438</v>
+        <v>0.9490365162278253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.984165621208948</v>
+        <v>0.9838130608086257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>651</v>
@@ -1940,19 +1940,19 @@
         <v>684217</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>673650</v>
+        <v>672152</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>692285</v>
+        <v>692073</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9662992836694401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9513753566206543</v>
+        <v>0.9492599568845321</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9776936554881771</v>
+        <v>0.9773931472086388</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>8978</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4165</v>
+        <v>4703</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16182</v>
+        <v>16516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03567621188740662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01655041024518749</v>
+        <v>0.01868799681691697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06430131114244088</v>
+        <v>0.06562839256323325</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2065,19 +2065,19 @@
         <v>8834</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3698</v>
+        <v>3919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17526</v>
+        <v>18029</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02276106068058439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009527505824436903</v>
+        <v>0.01009660734676265</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04515818426023396</v>
+        <v>0.04645261799085813</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2086,19 +2086,19 @@
         <v>17812</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10093</v>
+        <v>11100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27575</v>
+        <v>29130</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02784135935882048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01577542954634592</v>
+        <v>0.01735054204343019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04310189624353659</v>
+        <v>0.04553286466295962</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>242679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235475</v>
+        <v>235141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247492</v>
+        <v>246954</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9643237881125933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.935698688857559</v>
+        <v>0.9343716074367667</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9834495897548124</v>
+        <v>0.981312003183083</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>286</v>
@@ -2136,19 +2136,19 @@
         <v>379272</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>370580</v>
+        <v>370077</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>384408</v>
+        <v>384187</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9772389393194156</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9548418157397665</v>
+        <v>0.953547382009142</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9904724941755632</v>
+        <v>0.9899033926532373</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>573</v>
@@ -2157,19 +2157,19 @@
         <v>621951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>612188</v>
+        <v>610633</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>629670</v>
+        <v>628663</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9721586406411795</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9568981037564642</v>
+        <v>0.9544671353370402</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9842245704536541</v>
+        <v>0.9826494579565697</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>418936</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1241746394896912</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -2282,19 +2282,19 @@
         <v>276303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07846968218273359</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>678</v>
@@ -2303,19 +2303,19 @@
         <v>695239</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1008336839739633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2954829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2913240</v>
+        <v>2915260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2989418</v>
+        <v>2993196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8758253605103088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8634980606909434</v>
+        <v>0.8640968661131097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8860778655959096</v>
+        <v>0.8871974324805556</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3046</v>
@@ -2353,19 +2353,19 @@
         <v>3244843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3212542</v>
+        <v>3211734</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3272741</v>
+        <v>3272733</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9215303178172664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9123570835285711</v>
+        <v>0.9121273846048324</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9294533405899538</v>
+        <v>0.9294510612853573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5854</v>
@@ -2374,19 +2374,19 @@
         <v>6199672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6146313</v>
+        <v>6149266</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6246805</v>
+        <v>6251289</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8991663160260367</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8914274258705305</v>
+        <v>0.8918557583273939</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9060022215616121</v>
+        <v>0.9066525529482199</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>53376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35278</v>
+        <v>32358</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78285</v>
+        <v>78313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1308902746013511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08650995481828087</v>
+        <v>0.07934995942542911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1919729509512401</v>
+        <v>0.1920416757239212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2742,19 +2742,19 @@
         <v>40791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26664</v>
+        <v>26475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58736</v>
+        <v>59473</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1129904509707462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07385896826187283</v>
+        <v>0.0733342842821415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1626961135720109</v>
+        <v>0.1647370274119367</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2763,19 +2763,19 @@
         <v>94168</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71129</v>
+        <v>70397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123394</v>
+        <v>123022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1224849178887486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09251828221110388</v>
+        <v>0.0915664493344903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1605002790969442</v>
+        <v>0.1600167264417814</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>354417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>329508</v>
+        <v>329480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372515</v>
+        <v>375435</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8691097253986492</v>
+        <v>0.8691097253986488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8080270490487598</v>
+        <v>0.8079583242760785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9134900451817192</v>
+        <v>0.9206500405745709</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -2813,19 +2813,19 @@
         <v>320224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302279</v>
+        <v>301542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>334351</v>
+        <v>334540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8870095490292539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8373038864279888</v>
+        <v>0.835262972588062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9261410317381266</v>
+        <v>0.9266657157178583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>334</v>
@@ -2834,19 +2834,19 @@
         <v>674641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>645415</v>
+        <v>645787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>697680</v>
+        <v>698412</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8775150821112515</v>
+        <v>0.8775150821112513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8394997209030559</v>
+        <v>0.8399832735582184</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9074817177888961</v>
+        <v>0.9084335506655093</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>68875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50537</v>
+        <v>50883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89898</v>
+        <v>90207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1444258911294558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1059717833360529</v>
+        <v>0.1066971093963207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1885082079056929</v>
+        <v>0.1891575686999112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2959,19 +2959,19 @@
         <v>17522</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9939</v>
+        <v>10334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27819</v>
+        <v>27110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03496903543617154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01983503886452255</v>
+        <v>0.02062298653865783</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05551743856719057</v>
+        <v>0.05410286316179245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -2980,19 +2980,19 @@
         <v>86398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62948</v>
+        <v>65824</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108438</v>
+        <v>113530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08834360710100068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06436597567268532</v>
+        <v>0.06730625638227518</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1108800998424392</v>
+        <v>0.1160871208261857</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>408015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386992</v>
+        <v>386683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>426353</v>
+        <v>426007</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8555741088705442</v>
+        <v>0.8555741088705443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8114917920943071</v>
+        <v>0.8108424313000893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8940282166639474</v>
+        <v>0.8933028906036794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -3030,19 +3030,19 @@
         <v>483561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473264</v>
+        <v>473973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491144</v>
+        <v>490749</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9650309645638284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9444825614328102</v>
+        <v>0.9458971368382075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9801649611354776</v>
+        <v>0.9793770134613421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>706</v>
@@ -3051,19 +3051,19 @@
         <v>891575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>869535</v>
+        <v>864443</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>915025</v>
+        <v>912149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9116563928989992</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8891199001575607</v>
+        <v>0.8839128791738144</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9356340243273142</v>
+        <v>0.9326937436177251</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>46407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33984</v>
+        <v>33165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61636</v>
+        <v>61537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07474892291303042</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05473968160568601</v>
+        <v>0.05342013740383787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09927856004361187</v>
+        <v>0.09911936643824726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3176,19 +3176,19 @@
         <v>33203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24371</v>
+        <v>24446</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44253</v>
+        <v>43875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05351299114065482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03927794775181882</v>
+        <v>0.03939953404888733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07132246624637321</v>
+        <v>0.07071262226420313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3197,19 +3197,19 @@
         <v>79610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62955</v>
+        <v>63444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96741</v>
+        <v>97745</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06413411251093315</v>
+        <v>0.06413411251093316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05071654954100856</v>
+        <v>0.05111041682967635</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07793493221725685</v>
+        <v>0.07874343465293013</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>574430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559201</v>
+        <v>559300</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>586853</v>
+        <v>587672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9252510770869696</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9007214399563882</v>
+        <v>0.9008806335617527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.945260318394314</v>
+        <v>0.9465798625961623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -3247,19 +3247,19 @@
         <v>587265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>576215</v>
+        <v>576593</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>596097</v>
+        <v>596022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9464870088593453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9286775337536268</v>
+        <v>0.9292873777357967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9607220522481811</v>
+        <v>0.9606004659511127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1309</v>
@@ -3268,19 +3268,19 @@
         <v>1161695</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1144564</v>
+        <v>1143560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1178350</v>
+        <v>1177861</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9358658874890667</v>
+        <v>0.935865887489067</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9220650677827434</v>
+        <v>0.9212565653470698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9492834504589914</v>
+        <v>0.9488895831703238</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>49032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36916</v>
+        <v>35756</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65350</v>
+        <v>65124</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07016484580672469</v>
+        <v>0.0701648458067247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0528270849484144</v>
+        <v>0.05116638577573508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09351504923482576</v>
+        <v>0.09319178346998548</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3393,19 +3393,19 @@
         <v>27388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20247</v>
+        <v>19251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36368</v>
+        <v>36727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03735981758585265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02761975082739265</v>
+        <v>0.02626093330683821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04961035778029031</v>
+        <v>0.05009976227233576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -3414,19 +3414,19 @@
         <v>76420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62263</v>
+        <v>61001</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95111</v>
+        <v>94011</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05336991260535685</v>
+        <v>0.05336991260535687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04348335549550466</v>
+        <v>0.04260154011074908</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06642329535150032</v>
+        <v>0.06565484739325925</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>649785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>633467</v>
+        <v>633693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>661901</v>
+        <v>663061</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9298351541932753</v>
+        <v>0.9298351541932754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9064849507651742</v>
+        <v>0.9068082165300146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9471729150515856</v>
+        <v>0.948833614224265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1095</v>
@@ -3464,19 +3464,19 @@
         <v>705686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696706</v>
+        <v>696347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>712827</v>
+        <v>713823</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9626401824141473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9503896422197097</v>
+        <v>0.949900237727664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9723802491726075</v>
+        <v>0.9737390666931618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1716</v>
@@ -3485,19 +3485,19 @@
         <v>1355471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1336780</v>
+        <v>1337880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1369628</v>
+        <v>1370890</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9466300873946429</v>
+        <v>0.9466300873946432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9335767046484995</v>
+        <v>0.9343451526067408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.956516644504495</v>
+        <v>0.957398459889251</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>27452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19045</v>
+        <v>19224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40241</v>
+        <v>39230</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04517910871142331</v>
+        <v>0.04517910871142332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03134263135069394</v>
+        <v>0.03163849369167801</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.066226892803047</v>
+        <v>0.06456339108880831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3610,19 +3610,19 @@
         <v>9650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5869</v>
+        <v>5317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16152</v>
+        <v>15091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01590221935007078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009670987184731692</v>
+        <v>0.008761315721581307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02661684128548391</v>
+        <v>0.02486950215067343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3631,19 +3631,19 @@
         <v>37102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27126</v>
+        <v>26537</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49854</v>
+        <v>50354</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03055032910788009</v>
+        <v>0.03055032910788008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02233619866120114</v>
+        <v>0.02185139010033718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04105048049003521</v>
+        <v>0.0414624737192061</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>580172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>567383</v>
+        <v>568394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>588579</v>
+        <v>588400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9548208912885765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9337731071969529</v>
+        <v>0.9354366089111916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.968657368649306</v>
+        <v>0.9683615063083221</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>984</v>
@@ -3681,19 +3681,19 @@
         <v>597172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>590670</v>
+        <v>591731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>600953</v>
+        <v>601505</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9840977806499291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9733831587145159</v>
+        <v>0.9751304978493265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9903290128152682</v>
+        <v>0.9912386842784187</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1618</v>
@@ -3702,19 +3702,19 @@
         <v>1177345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1164593</v>
+        <v>1164093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1187321</v>
+        <v>1187910</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9694496708921201</v>
+        <v>0.9694496708921196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.958949519509965</v>
+        <v>0.958537526280794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9776638013387989</v>
+        <v>0.9781486098996628</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>13549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8446</v>
+        <v>8231</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21083</v>
+        <v>20741</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03328343613501719</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02074824966606425</v>
+        <v>0.02022026401622515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05179078196228142</v>
+        <v>0.05094983844012377</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -3827,19 +3827,19 @@
         <v>6501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3138</v>
+        <v>3322</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11166</v>
+        <v>10918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01480401654433775</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007145220753074649</v>
+        <v>0.007564836582634515</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02542507154451744</v>
+        <v>0.02486142675494504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3848,19 +3848,19 @@
         <v>20050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13949</v>
+        <v>13384</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29212</v>
+        <v>29122</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.023693391339721</v>
+        <v>0.02369339133972101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01648385917245915</v>
+        <v>0.01581599579874979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0345190412012715</v>
+        <v>0.03441337140836291</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>393531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>385997</v>
+        <v>386339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398634</v>
+        <v>398849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9667165638649828</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9482092180377191</v>
+        <v>0.9490501615598755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.979251750333936</v>
+        <v>0.9797797359837747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>816</v>
@@ -3898,19 +3898,19 @@
         <v>432665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>428000</v>
+        <v>428248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>436028</v>
+        <v>435844</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9851959834556623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9745749284554824</v>
+        <v>0.9751385732450549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9928547792469252</v>
+        <v>0.9924351634173654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1367</v>
@@ -3919,19 +3919,19 @@
         <v>826196</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>817034</v>
+        <v>817124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>832297</v>
+        <v>832862</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.976306608660279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9654809587987288</v>
+        <v>0.9655866285916378</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.983516140827541</v>
+        <v>0.9841840042012505</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>5086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2351</v>
+        <v>2010</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10050</v>
+        <v>10511</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01642406460640054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007593114463339435</v>
+        <v>0.00649096363035772</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03245639926088544</v>
+        <v>0.03394666972966499</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4044,19 +4044,19 @@
         <v>9321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5511</v>
+        <v>5439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17801</v>
+        <v>16023</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02009043645628405</v>
+        <v>0.02009043645628404</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01187994036979404</v>
+        <v>0.01172293790331041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03837046781598169</v>
+        <v>0.03453842048377633</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4065,19 +4065,19 @@
         <v>14406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9236</v>
+        <v>8809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21757</v>
+        <v>22722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01862288854015464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01193911625292901</v>
+        <v>0.01138774336349138</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02812576647071549</v>
+        <v>0.02937309668930214</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>304553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>299589</v>
+        <v>299128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>307288</v>
+        <v>307629</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9835759353935996</v>
+        <v>0.9835759353935994</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9675436007391149</v>
+        <v>0.9660533302703354</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9924068855366605</v>
+        <v>0.9935090363696424</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>866</v>
@@ -4115,19 +4115,19 @@
         <v>454610</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>446130</v>
+        <v>447908</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>458420</v>
+        <v>458492</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9799095635437158</v>
+        <v>0.9799095635437159</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9616295321840184</v>
+        <v>0.9654615795162242</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9881200596302059</v>
+        <v>0.9882770620966896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1316</v>
@@ -4136,19 +4136,19 @@
         <v>759163</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>751812</v>
+        <v>750847</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764333</v>
+        <v>764760</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9813771114598453</v>
+        <v>0.9813771114598454</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9718742335292845</v>
+        <v>0.9706269033106976</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9880608837470708</v>
+        <v>0.9886122566365083</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>263777</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0747523738706181</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>158</v>
@@ -4261,19 +4261,19 @@
         <v>144376</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03875286191098209</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>355</v>
@@ -4282,19 +4282,19 @@
         <v>408153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3264903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3224315</v>
+        <v>3223186</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3298552</v>
+        <v>3304068</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9252476261293819</v>
+        <v>0.9252476261293817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9137453808890854</v>
+        <v>0.9134253344751708</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9347836314381215</v>
+        <v>0.936346753536358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5192</v>
@@ -4332,19 +4332,19 @@
         <v>3581184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3554833</v>
+        <v>3555914</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3602994</v>
+        <v>3602942</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9612471380890178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9541741150393775</v>
+        <v>0.954464341329081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9671011955543525</v>
+        <v>0.9670874042841348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8366</v>
@@ -4353,19 +4353,19 @@
         <v>6846087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6795109</v>
+        <v>6801812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6890002</v>
+        <v>6891891</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.943735894987328</v>
+        <v>0.9437358949873278</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9367085762313014</v>
+        <v>0.9376326419088747</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9497896063852623</v>
+        <v>0.9500501081728302</v>
       </c>
     </row>
     <row r="27">
